--- a/incidentes/201612/ViajesNoCompensados2015_V1.xlsx
+++ b/incidentes/201612/ViajesNoCompensados2015_V1.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="No Compensados 2015(142 viajes)" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
+    <sheet name="Resultado del proceso de baja" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="461">
   <si>
     <t>nrLicencia</t>
   </si>
@@ -1356,13 +1359,55 @@
   </si>
   <si>
     <t xml:space="preserve">  fleliminar =0  </t>
+  </si>
+  <si>
+    <t>suma_vlPagoPesos</t>
+  </si>
+  <si>
+    <t>suma_vlPagoEuros</t>
+  </si>
+  <si>
+    <t>suma_vlPagoDolares</t>
+  </si>
+  <si>
+    <t>suma_vlPagoReales</t>
+  </si>
+  <si>
+    <t>dtcupon_hora_corte</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Despues del proceso de baja</t>
+  </si>
+  <si>
+    <t>Antes de proceso de baja</t>
+  </si>
+  <si>
+    <t>pesos</t>
+  </si>
+  <si>
+    <t>euros</t>
+  </si>
+  <si>
+    <t>dolares</t>
+  </si>
+  <si>
+    <t>reales</t>
+  </si>
+  <si>
+    <t>fecha de corte</t>
+  </si>
+  <si>
+    <t>Comprobante dados de baja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1373,6 +1418,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1419,11 +1472,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1730,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -5191,7 +5247,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5216,13 +5272,11 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>397</v>
@@ -5251,6 +5305,7621 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>670838.85</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1225</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9548</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16759</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42730.249988425923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:H146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>188586</v>
+      </c>
+      <c r="F6">
+        <v>450</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42237</v>
+      </c>
+      <c r="H6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>626816</v>
+      </c>
+      <c r="F7">
+        <v>450</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42182</v>
+      </c>
+      <c r="H7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>439611</v>
+      </c>
+      <c r="F8">
+        <v>450</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42325</v>
+      </c>
+      <c r="H8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>675</v>
+      </c>
+      <c r="F9">
+        <v>470</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>480</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42278</v>
+      </c>
+      <c r="H10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5691</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42226</v>
+      </c>
+      <c r="H11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>399344</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+      <c r="G12" s="5">
+        <v>42083</v>
+      </c>
+      <c r="H12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>108937</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>105315</v>
+      </c>
+      <c r="F14">
+        <v>450</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42223</v>
+      </c>
+      <c r="H14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>649197</v>
+      </c>
+      <c r="F15">
+        <v>450</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42316</v>
+      </c>
+      <c r="H15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>390216</v>
+      </c>
+      <c r="F16">
+        <v>380</v>
+      </c>
+      <c r="G16" s="5">
+        <v>42032</v>
+      </c>
+      <c r="H16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>604035</v>
+      </c>
+      <c r="F17">
+        <v>430</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42048</v>
+      </c>
+      <c r="H17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>146233</v>
+      </c>
+      <c r="F18">
+        <v>220</v>
+      </c>
+      <c r="G18" s="5">
+        <v>42347</v>
+      </c>
+      <c r="H18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>427897</v>
+      </c>
+      <c r="F19">
+        <v>450</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42267</v>
+      </c>
+      <c r="H19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>189069</v>
+      </c>
+      <c r="F20">
+        <v>540</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1321</v>
+      </c>
+      <c r="F21">
+        <v>450</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42361</v>
+      </c>
+      <c r="H21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>452</v>
+      </c>
+      <c r="F22">
+        <v>400</v>
+      </c>
+      <c r="G22" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>625864</v>
+      </c>
+      <c r="F23">
+        <v>480</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42177</v>
+      </c>
+      <c r="H23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>407028</v>
+      </c>
+      <c r="F24">
+        <v>450</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>719</v>
+      </c>
+      <c r="F25">
+        <v>470</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42346</v>
+      </c>
+      <c r="H25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>322</v>
+      </c>
+      <c r="F26">
+        <v>610</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42332</v>
+      </c>
+      <c r="H26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>642533</v>
+      </c>
+      <c r="F27">
+        <v>450</v>
+      </c>
+      <c r="G27" s="5">
+        <v>42281</v>
+      </c>
+      <c r="H27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6567</v>
+      </c>
+      <c r="F28">
+        <v>750</v>
+      </c>
+      <c r="G28" s="5">
+        <v>42265</v>
+      </c>
+      <c r="H28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6684</v>
+      </c>
+      <c r="F29">
+        <v>920</v>
+      </c>
+      <c r="G29" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>19757</v>
+      </c>
+      <c r="F30">
+        <v>400</v>
+      </c>
+      <c r="G30" s="5">
+        <v>42109</v>
+      </c>
+      <c r="H30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>5790</v>
+      </c>
+      <c r="F31">
+        <v>790</v>
+      </c>
+      <c r="G31" s="5">
+        <v>42230</v>
+      </c>
+      <c r="H31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>652497</v>
+      </c>
+      <c r="F32">
+        <v>450</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42333</v>
+      </c>
+      <c r="H32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>189695</v>
+      </c>
+      <c r="F33">
+        <v>450</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42283</v>
+      </c>
+      <c r="H33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>535</v>
+      </c>
+      <c r="F34">
+        <v>350</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42311</v>
+      </c>
+      <c r="H34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>678</v>
+      </c>
+      <c r="F35">
+        <v>470</v>
+      </c>
+      <c r="G35" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>192858</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42369</v>
+      </c>
+      <c r="H36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>450</v>
+      </c>
+      <c r="G37" s="5">
+        <v>42277</v>
+      </c>
+      <c r="H37" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>1323</v>
+      </c>
+      <c r="F38">
+        <v>400</v>
+      </c>
+      <c r="G38" s="5">
+        <v>42361</v>
+      </c>
+      <c r="H38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>621823</v>
+      </c>
+      <c r="F39">
+        <v>450</v>
+      </c>
+      <c r="G39" s="5">
+        <v>42153</v>
+      </c>
+      <c r="H39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>104859</v>
+      </c>
+      <c r="F40">
+        <v>400</v>
+      </c>
+      <c r="G40" s="5">
+        <v>42124</v>
+      </c>
+      <c r="H40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>654999</v>
+      </c>
+      <c r="F41">
+        <v>450</v>
+      </c>
+      <c r="G41" s="5">
+        <v>42349</v>
+      </c>
+      <c r="H41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>6428</v>
+      </c>
+      <c r="F42">
+        <v>470</v>
+      </c>
+      <c r="G42" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>419266</v>
+      </c>
+      <c r="F43">
+        <v>450</v>
+      </c>
+      <c r="G43" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>6447</v>
+      </c>
+      <c r="F44">
+        <v>350</v>
+      </c>
+      <c r="G44" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>676</v>
+      </c>
+      <c r="F45">
+        <v>660</v>
+      </c>
+      <c r="G45" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>525</v>
+      </c>
+      <c r="F46">
+        <v>350</v>
+      </c>
+      <c r="G46" s="5">
+        <v>42306</v>
+      </c>
+      <c r="H46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>399001</v>
+      </c>
+      <c r="F47">
+        <v>400</v>
+      </c>
+      <c r="G47" s="5">
+        <v>42080</v>
+      </c>
+      <c r="H47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>424656</v>
+      </c>
+      <c r="F48">
+        <v>450</v>
+      </c>
+      <c r="G48" s="5">
+        <v>42245</v>
+      </c>
+      <c r="H48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>399250</v>
+      </c>
+      <c r="F49">
+        <v>400</v>
+      </c>
+      <c r="G49" s="5">
+        <v>42083</v>
+      </c>
+      <c r="H49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>6678</v>
+      </c>
+      <c r="F50">
+        <v>470</v>
+      </c>
+      <c r="G50" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>6156</v>
+      </c>
+      <c r="F51">
+        <v>510</v>
+      </c>
+      <c r="G51" s="5">
+        <v>42246</v>
+      </c>
+      <c r="H51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>6450</v>
+      </c>
+      <c r="F52">
+        <v>350</v>
+      </c>
+      <c r="G52" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>657612</v>
+      </c>
+      <c r="F53">
+        <v>500</v>
+      </c>
+      <c r="G53" s="5">
+        <v>42364</v>
+      </c>
+      <c r="H53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>4213</v>
+      </c>
+      <c r="F54">
+        <v>400</v>
+      </c>
+      <c r="G54" s="5">
+        <v>42038</v>
+      </c>
+      <c r="H54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>632449</v>
+      </c>
+      <c r="F55">
+        <v>540</v>
+      </c>
+      <c r="G55" s="5">
+        <v>42214</v>
+      </c>
+      <c r="H55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>432</v>
+      </c>
+      <c r="F56">
+        <v>480</v>
+      </c>
+      <c r="G56" s="5">
+        <v>42293</v>
+      </c>
+      <c r="H56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>623274</v>
+      </c>
+      <c r="F57">
+        <v>450</v>
+      </c>
+      <c r="G57" s="5">
+        <v>42162</v>
+      </c>
+      <c r="H57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>677</v>
+      </c>
+      <c r="F58">
+        <v>470</v>
+      </c>
+      <c r="G58" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>350</v>
+      </c>
+      <c r="G59" s="5">
+        <v>42263</v>
+      </c>
+      <c r="H59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>597084</v>
+      </c>
+      <c r="F60">
+        <v>400</v>
+      </c>
+      <c r="G60" s="5">
+        <v>42013</v>
+      </c>
+      <c r="H60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>432128</v>
+      </c>
+      <c r="F61">
+        <v>510</v>
+      </c>
+      <c r="G61" s="5">
+        <v>42293</v>
+      </c>
+      <c r="H61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>107847</v>
+      </c>
+      <c r="F62">
+        <v>450</v>
+      </c>
+      <c r="G62" s="5">
+        <v>42342</v>
+      </c>
+      <c r="H62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>407369</v>
+      </c>
+      <c r="F63">
+        <v>480</v>
+      </c>
+      <c r="G63" s="5">
+        <v>42135</v>
+      </c>
+      <c r="H63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>190544</v>
+      </c>
+      <c r="F64">
+        <v>430</v>
+      </c>
+      <c r="G64" s="5">
+        <v>42336</v>
+      </c>
+      <c r="H64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>637055</v>
+      </c>
+      <c r="F65">
+        <v>450</v>
+      </c>
+      <c r="G65" s="5">
+        <v>42248</v>
+      </c>
+      <c r="H65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>862</v>
+      </c>
+      <c r="F66">
+        <v>450</v>
+      </c>
+      <c r="G66" s="5">
+        <v>42338</v>
+      </c>
+      <c r="H66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>674</v>
+      </c>
+      <c r="F67">
+        <v>660</v>
+      </c>
+      <c r="G67" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H67" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>421397</v>
+      </c>
+      <c r="F68">
+        <v>450</v>
+      </c>
+      <c r="G68" s="5">
+        <v>42221</v>
+      </c>
+      <c r="H68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>191291</v>
+      </c>
+      <c r="F69">
+        <v>450</v>
+      </c>
+      <c r="G69" s="5">
+        <v>42351</v>
+      </c>
+      <c r="H69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>639764</v>
+      </c>
+      <c r="F70">
+        <v>450</v>
+      </c>
+      <c r="G70" s="5">
+        <v>42266</v>
+      </c>
+      <c r="H70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>598724</v>
+      </c>
+      <c r="F71">
+        <v>410</v>
+      </c>
+      <c r="G71" s="5">
+        <v>42021</v>
+      </c>
+      <c r="H71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>596853</v>
+      </c>
+      <c r="F72">
+        <v>400</v>
+      </c>
+      <c r="G72" s="5">
+        <v>42012</v>
+      </c>
+      <c r="H72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>1322</v>
+      </c>
+      <c r="F73">
+        <v>460</v>
+      </c>
+      <c r="G73" s="5">
+        <v>42361</v>
+      </c>
+      <c r="H73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>47</v>
+      </c>
+      <c r="F74">
+        <v>930</v>
+      </c>
+      <c r="G74" s="5">
+        <v>42279</v>
+      </c>
+      <c r="H74" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>671</v>
+      </c>
+      <c r="F75">
+        <v>600</v>
+      </c>
+      <c r="G75" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H75" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>135983</v>
+      </c>
+      <c r="F76">
+        <v>450</v>
+      </c>
+      <c r="G76" s="5">
+        <v>42237</v>
+      </c>
+      <c r="H76" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>192412</v>
+      </c>
+      <c r="F77">
+        <v>500</v>
+      </c>
+      <c r="G77" s="5">
+        <v>42367</v>
+      </c>
+      <c r="H77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>108384</v>
+      </c>
+      <c r="F78">
+        <v>500</v>
+      </c>
+      <c r="G78" s="5">
+        <v>42365</v>
+      </c>
+      <c r="H78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>643453</v>
+      </c>
+      <c r="F79">
+        <v>450</v>
+      </c>
+      <c r="G79" s="5">
+        <v>42287</v>
+      </c>
+      <c r="H79" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>122</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>608</v>
+      </c>
+      <c r="F80">
+        <v>700</v>
+      </c>
+      <c r="G80" s="5">
+        <v>42327</v>
+      </c>
+      <c r="H80" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>122</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>104</v>
+      </c>
+      <c r="F81">
+        <v>450</v>
+      </c>
+      <c r="G81" s="5">
+        <v>42278</v>
+      </c>
+      <c r="H81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>438595</v>
+      </c>
+      <c r="F82">
+        <v>450</v>
+      </c>
+      <c r="G82" s="5">
+        <v>42321</v>
+      </c>
+      <c r="H82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>629453</v>
+      </c>
+      <c r="F83">
+        <v>450</v>
+      </c>
+      <c r="G83" s="5">
+        <v>42197</v>
+      </c>
+      <c r="H83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>638404</v>
+      </c>
+      <c r="F84">
+        <v>450</v>
+      </c>
+      <c r="G84" s="5">
+        <v>42257</v>
+      </c>
+      <c r="H84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>6691</v>
+      </c>
+      <c r="F85">
+        <v>700</v>
+      </c>
+      <c r="G85" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>604529</v>
+      </c>
+      <c r="F86">
+        <v>400</v>
+      </c>
+      <c r="G86" s="5">
+        <v>42050</v>
+      </c>
+      <c r="H86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>6556</v>
+      </c>
+      <c r="F87">
+        <v>470</v>
+      </c>
+      <c r="G87" s="5">
+        <v>42263</v>
+      </c>
+      <c r="H87" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>20208</v>
+      </c>
+      <c r="F88">
+        <v>450</v>
+      </c>
+      <c r="G88" s="5">
+        <v>42149</v>
+      </c>
+      <c r="H88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>444218</v>
+      </c>
+      <c r="F89">
+        <v>450</v>
+      </c>
+      <c r="G89" s="5">
+        <v>42350</v>
+      </c>
+      <c r="H89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>614599</v>
+      </c>
+      <c r="F90">
+        <v>400</v>
+      </c>
+      <c r="G90" s="5">
+        <v>42107</v>
+      </c>
+      <c r="H90" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>441022</v>
+      </c>
+      <c r="F91">
+        <v>450</v>
+      </c>
+      <c r="G91" s="5">
+        <v>42330</v>
+      </c>
+      <c r="H91" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>433242</v>
+      </c>
+      <c r="F92">
+        <v>290</v>
+      </c>
+      <c r="G92" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>187721</v>
+      </c>
+      <c r="F93">
+        <v>450</v>
+      </c>
+      <c r="G93" s="5">
+        <v>42222</v>
+      </c>
+      <c r="H93" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>58</v>
+      </c>
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>190290</v>
+      </c>
+      <c r="F94">
+        <v>450</v>
+      </c>
+      <c r="G94" s="5">
+        <v>42285</v>
+      </c>
+      <c r="H94" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>106452</v>
+      </c>
+      <c r="F95">
+        <v>540</v>
+      </c>
+      <c r="G95" s="5">
+        <v>42260</v>
+      </c>
+      <c r="H95" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>599739</v>
+      </c>
+      <c r="F96">
+        <v>400</v>
+      </c>
+      <c r="G96" s="5">
+        <v>42026</v>
+      </c>
+      <c r="H96" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>648434</v>
+      </c>
+      <c r="F97">
+        <v>450</v>
+      </c>
+      <c r="G97" s="5">
+        <v>42313</v>
+      </c>
+      <c r="H97" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>79</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>436655</v>
+      </c>
+      <c r="F98">
+        <v>570</v>
+      </c>
+      <c r="G98" s="5">
+        <v>42313</v>
+      </c>
+      <c r="H98" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>399830</v>
+      </c>
+      <c r="F99">
+        <v>480</v>
+      </c>
+      <c r="G99" s="5">
+        <v>42088</v>
+      </c>
+      <c r="H99" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>24668</v>
+      </c>
+      <c r="F100">
+        <v>450</v>
+      </c>
+      <c r="G100" s="5">
+        <v>42334</v>
+      </c>
+      <c r="H100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>108774</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+      <c r="G101" s="5">
+        <v>42366</v>
+      </c>
+      <c r="H101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>646374</v>
+      </c>
+      <c r="F102">
+        <v>450</v>
+      </c>
+      <c r="G102" s="5">
+        <v>42302</v>
+      </c>
+      <c r="H102" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>4219</v>
+      </c>
+      <c r="F103">
+        <v>350</v>
+      </c>
+      <c r="G103" s="5">
+        <v>42038</v>
+      </c>
+      <c r="H103" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>450</v>
+      </c>
+      <c r="F104">
+        <v>400</v>
+      </c>
+      <c r="G104" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H104" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>448</v>
+      </c>
+      <c r="F105">
+        <v>400</v>
+      </c>
+      <c r="G105" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H105" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>2943</v>
+      </c>
+      <c r="F106">
+        <v>350</v>
+      </c>
+      <c r="G106" s="5">
+        <v>42217</v>
+      </c>
+      <c r="H106" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>424</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>451</v>
+      </c>
+      <c r="F107">
+        <v>400</v>
+      </c>
+      <c r="G107" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>656220</v>
+      </c>
+      <c r="F108">
+        <v>560</v>
+      </c>
+      <c r="G108" s="5">
+        <v>42355</v>
+      </c>
+      <c r="H108" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>631508</v>
+      </c>
+      <c r="F109">
+        <v>450</v>
+      </c>
+      <c r="G109" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H109" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>17980</v>
+      </c>
+      <c r="F110">
+        <v>400</v>
+      </c>
+      <c r="G110" s="5">
+        <v>42030</v>
+      </c>
+      <c r="H110" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>624893</v>
+      </c>
+      <c r="F111">
+        <v>450</v>
+      </c>
+      <c r="G111" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H111" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>656001</v>
+      </c>
+      <c r="F112">
+        <v>570</v>
+      </c>
+      <c r="G112" s="5">
+        <v>42354</v>
+      </c>
+      <c r="H112" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>434131</v>
+      </c>
+      <c r="F113">
+        <v>450</v>
+      </c>
+      <c r="G113" s="5">
+        <v>42302</v>
+      </c>
+      <c r="H113" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>104980</v>
+      </c>
+      <c r="F114">
+        <v>450</v>
+      </c>
+      <c r="G114" s="5">
+        <v>42132</v>
+      </c>
+      <c r="H114" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>298</v>
+      </c>
+      <c r="F115">
+        <v>600</v>
+      </c>
+      <c r="G115" s="5">
+        <v>42331</v>
+      </c>
+      <c r="H115" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>4155</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116" s="5">
+        <v>42006</v>
+      </c>
+      <c r="H116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>140</v>
+      </c>
+      <c r="F117">
+        <v>570</v>
+      </c>
+      <c r="G117" s="5">
+        <v>42278</v>
+      </c>
+      <c r="H117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>670</v>
+      </c>
+      <c r="F118">
+        <v>740</v>
+      </c>
+      <c r="G118" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H118" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>105041</v>
+      </c>
+      <c r="F119">
+        <v>540</v>
+      </c>
+      <c r="G119" s="5">
+        <v>42152</v>
+      </c>
+      <c r="H119" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>610262</v>
+      </c>
+      <c r="F120">
+        <v>430</v>
+      </c>
+      <c r="G120" s="5">
+        <v>42082</v>
+      </c>
+      <c r="H120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>463</v>
+      </c>
+      <c r="F121">
+        <v>470</v>
+      </c>
+      <c r="G121" s="5">
+        <v>42319</v>
+      </c>
+      <c r="H121" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>643783</v>
+      </c>
+      <c r="F122">
+        <v>540</v>
+      </c>
+      <c r="G122" s="5">
+        <v>42289</v>
+      </c>
+      <c r="H122" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>57</v>
+      </c>
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>424685</v>
+      </c>
+      <c r="F123">
+        <v>450</v>
+      </c>
+      <c r="G123" s="5">
+        <v>42245</v>
+      </c>
+      <c r="H123" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>7</v>
+      </c>
+      <c r="E124">
+        <v>433761</v>
+      </c>
+      <c r="F124">
+        <v>450</v>
+      </c>
+      <c r="G124" s="5">
+        <v>42300</v>
+      </c>
+      <c r="H124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>6563</v>
+      </c>
+      <c r="F125">
+        <v>470</v>
+      </c>
+      <c r="G125" s="5">
+        <v>42263</v>
+      </c>
+      <c r="H125" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>64</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>396379</v>
+      </c>
+      <c r="F126">
+        <v>380</v>
+      </c>
+      <c r="G126" s="5">
+        <v>42065</v>
+      </c>
+      <c r="H126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>70</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>404247</v>
+      </c>
+      <c r="F127">
+        <v>400</v>
+      </c>
+      <c r="G127" s="5">
+        <v>42116</v>
+      </c>
+      <c r="H127" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>70</v>
+      </c>
+      <c r="B128" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>12592</v>
+      </c>
+      <c r="F128">
+        <v>450</v>
+      </c>
+      <c r="G128" s="5">
+        <v>42338</v>
+      </c>
+      <c r="H128" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>97</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <v>439381</v>
+      </c>
+      <c r="F129">
+        <v>450</v>
+      </c>
+      <c r="G129" s="5">
+        <v>42324</v>
+      </c>
+      <c r="H129" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>99</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>627756</v>
+      </c>
+      <c r="F130">
+        <v>470</v>
+      </c>
+      <c r="G130" s="5">
+        <v>42188</v>
+      </c>
+      <c r="H130" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>99</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>646999</v>
+      </c>
+      <c r="F131">
+        <v>450</v>
+      </c>
+      <c r="G131" s="5">
+        <v>42306</v>
+      </c>
+      <c r="H131" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>102</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>6702</v>
+      </c>
+      <c r="F132">
+        <v>520</v>
+      </c>
+      <c r="G132" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H132" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>102</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>608667</v>
+      </c>
+      <c r="F133">
+        <v>400</v>
+      </c>
+      <c r="G133" s="5">
+        <v>42072</v>
+      </c>
+      <c r="H133" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>102</v>
+      </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>386878</v>
+      </c>
+      <c r="F134">
+        <v>400</v>
+      </c>
+      <c r="G134" s="5">
+        <v>42015</v>
+      </c>
+      <c r="H134" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>102</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>619440</v>
+      </c>
+      <c r="F135">
+        <v>450</v>
+      </c>
+      <c r="G135" s="5">
+        <v>42139</v>
+      </c>
+      <c r="H135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>105872</v>
+      </c>
+      <c r="F136">
+        <v>450</v>
+      </c>
+      <c r="G136" s="5">
+        <v>42239</v>
+      </c>
+      <c r="H136" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>102</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>641944</v>
+      </c>
+      <c r="F137">
+        <v>450</v>
+      </c>
+      <c r="G137" s="5">
+        <v>42279</v>
+      </c>
+      <c r="H137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>611009</v>
+      </c>
+      <c r="F138">
+        <v>400</v>
+      </c>
+      <c r="G138" s="5">
+        <v>42088</v>
+      </c>
+      <c r="H138" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>106</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>192644</v>
+      </c>
+      <c r="F139">
+        <v>500</v>
+      </c>
+      <c r="G139" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H139" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>106</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <v>446399</v>
+      </c>
+      <c r="F140">
+        <v>500</v>
+      </c>
+      <c r="G140" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H140" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>106</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>108984</v>
+      </c>
+      <c r="F141">
+        <v>500</v>
+      </c>
+      <c r="G141" s="5">
+        <v>42369</v>
+      </c>
+      <c r="H141" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>106</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>192553</v>
+      </c>
+      <c r="F142">
+        <v>500</v>
+      </c>
+      <c r="G142" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H142" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>111</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>706</v>
+      </c>
+      <c r="F143">
+        <v>450</v>
+      </c>
+      <c r="G143" s="5">
+        <v>42338</v>
+      </c>
+      <c r="H143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>111</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>643</v>
+      </c>
+      <c r="F144">
+        <v>450</v>
+      </c>
+      <c r="G144" s="5">
+        <v>42327</v>
+      </c>
+      <c r="H144" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>111</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145">
+        <v>15</v>
+      </c>
+      <c r="F145">
+        <v>610</v>
+      </c>
+      <c r="G145" s="5">
+        <v>42282</v>
+      </c>
+      <c r="H145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>111</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>99</v>
+      </c>
+      <c r="F146">
+        <v>510</v>
+      </c>
+      <c r="G146" s="5">
+        <v>42282</v>
+      </c>
+      <c r="H146" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="J2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>928976.97</v>
+      </c>
+      <c r="B3">
+        <v>2633</v>
+      </c>
+      <c r="C3">
+        <v>17331</v>
+      </c>
+      <c r="D3">
+        <v>10868</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42730.249988425923</v>
+      </c>
+      <c r="J3">
+        <v>881238.97</v>
+      </c>
+      <c r="K3">
+        <v>2551</v>
+      </c>
+      <c r="L3">
+        <v>16513</v>
+      </c>
+      <c r="M3">
+        <v>9483</v>
+      </c>
+      <c r="N3" s="4">
+        <v>42730.249988425923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>881238.97</v>
+      </c>
+      <c r="B7">
+        <v>2551</v>
+      </c>
+      <c r="C7">
+        <v>16513</v>
+      </c>
+      <c r="D7">
+        <v>9483</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42730.249988425923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>677</v>
+      </c>
+      <c r="F11">
+        <v>470</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>350</v>
+      </c>
+      <c r="G12" s="5">
+        <v>42263</v>
+      </c>
+      <c r="H12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>624893</v>
+      </c>
+      <c r="F13">
+        <v>450</v>
+      </c>
+      <c r="G13" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>656001</v>
+      </c>
+      <c r="F14">
+        <v>570</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42354</v>
+      </c>
+      <c r="H14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6567</v>
+      </c>
+      <c r="F15">
+        <v>750</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42265</v>
+      </c>
+      <c r="H15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6684</v>
+      </c>
+      <c r="F16">
+        <v>920</v>
+      </c>
+      <c r="G16" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>19757</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>107847</v>
+      </c>
+      <c r="F18">
+        <v>450</v>
+      </c>
+      <c r="G18" s="5">
+        <v>42342</v>
+      </c>
+      <c r="H18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6691</v>
+      </c>
+      <c r="F19">
+        <v>700</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>604529</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42050</v>
+      </c>
+      <c r="H20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6556</v>
+      </c>
+      <c r="F21">
+        <v>470</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42263</v>
+      </c>
+      <c r="H21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>20208</v>
+      </c>
+      <c r="F22">
+        <v>450</v>
+      </c>
+      <c r="G22" s="5">
+        <v>42149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>105315</v>
+      </c>
+      <c r="F23">
+        <v>450</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42223</v>
+      </c>
+      <c r="H23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>614599</v>
+      </c>
+      <c r="F24">
+        <v>400</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>441022</v>
+      </c>
+      <c r="F25">
+        <v>450</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42330</v>
+      </c>
+      <c r="H25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>433242</v>
+      </c>
+      <c r="F26">
+        <v>290</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42298</v>
+      </c>
+      <c r="H26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>187721</v>
+      </c>
+      <c r="F27">
+        <v>450</v>
+      </c>
+      <c r="G27" s="5">
+        <v>42222</v>
+      </c>
+      <c r="H27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>604035</v>
+      </c>
+      <c r="F28">
+        <v>430</v>
+      </c>
+      <c r="G28" s="5">
+        <v>42048</v>
+      </c>
+      <c r="H28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>47</v>
+      </c>
+      <c r="F29">
+        <v>930</v>
+      </c>
+      <c r="G29" s="5">
+        <v>42279</v>
+      </c>
+      <c r="H29" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>671</v>
+      </c>
+      <c r="F30">
+        <v>600</v>
+      </c>
+      <c r="G30" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>657612</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31" s="5">
+        <v>42364</v>
+      </c>
+      <c r="H31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>4213</v>
+      </c>
+      <c r="F32">
+        <v>400</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42038</v>
+      </c>
+      <c r="H32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>719</v>
+      </c>
+      <c r="F33">
+        <v>470</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42346</v>
+      </c>
+      <c r="H33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>322</v>
+      </c>
+      <c r="F34">
+        <v>610</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42332</v>
+      </c>
+      <c r="H34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>642533</v>
+      </c>
+      <c r="F35">
+        <v>450</v>
+      </c>
+      <c r="G35" s="5">
+        <v>42281</v>
+      </c>
+      <c r="H35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>5790</v>
+      </c>
+      <c r="F36">
+        <v>790</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42230</v>
+      </c>
+      <c r="H36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>407369</v>
+      </c>
+      <c r="F37">
+        <v>480</v>
+      </c>
+      <c r="G37" s="5">
+        <v>42135</v>
+      </c>
+      <c r="H37" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>862</v>
+      </c>
+      <c r="F38">
+        <v>450</v>
+      </c>
+      <c r="G38" s="5">
+        <v>42338</v>
+      </c>
+      <c r="H38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>674</v>
+      </c>
+      <c r="F39">
+        <v>660</v>
+      </c>
+      <c r="G39" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>639764</v>
+      </c>
+      <c r="F40">
+        <v>450</v>
+      </c>
+      <c r="G40" s="5">
+        <v>42266</v>
+      </c>
+      <c r="H40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>598724</v>
+      </c>
+      <c r="F41">
+        <v>410</v>
+      </c>
+      <c r="G41" s="5">
+        <v>42021</v>
+      </c>
+      <c r="H41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>146233</v>
+      </c>
+      <c r="F42">
+        <v>220</v>
+      </c>
+      <c r="G42" s="5">
+        <v>42347</v>
+      </c>
+      <c r="H42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>648434</v>
+      </c>
+      <c r="F43">
+        <v>450</v>
+      </c>
+      <c r="G43" s="5">
+        <v>42313</v>
+      </c>
+      <c r="H43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>436655</v>
+      </c>
+      <c r="F44">
+        <v>570</v>
+      </c>
+      <c r="G44" s="5">
+        <v>42313</v>
+      </c>
+      <c r="H44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>399830</v>
+      </c>
+      <c r="F45">
+        <v>480</v>
+      </c>
+      <c r="G45" s="5">
+        <v>42088</v>
+      </c>
+      <c r="H45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>632449</v>
+      </c>
+      <c r="F46">
+        <v>540</v>
+      </c>
+      <c r="G46" s="5">
+        <v>42214</v>
+      </c>
+      <c r="H46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>432</v>
+      </c>
+      <c r="F47">
+        <v>480</v>
+      </c>
+      <c r="G47" s="5">
+        <v>42293</v>
+      </c>
+      <c r="H47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>4219</v>
+      </c>
+      <c r="F48">
+        <v>350</v>
+      </c>
+      <c r="G48" s="5">
+        <v>42038</v>
+      </c>
+      <c r="H48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>450</v>
+      </c>
+      <c r="F49">
+        <v>400</v>
+      </c>
+      <c r="G49" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>448</v>
+      </c>
+      <c r="F50">
+        <v>400</v>
+      </c>
+      <c r="G50" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>2943</v>
+      </c>
+      <c r="F51">
+        <v>350</v>
+      </c>
+      <c r="G51" s="5">
+        <v>42217</v>
+      </c>
+      <c r="H51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>424656</v>
+      </c>
+      <c r="F52">
+        <v>450</v>
+      </c>
+      <c r="G52" s="5">
+        <v>42245</v>
+      </c>
+      <c r="H52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>623274</v>
+      </c>
+      <c r="F53">
+        <v>450</v>
+      </c>
+      <c r="G53" s="5">
+        <v>42162</v>
+      </c>
+      <c r="H53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>438595</v>
+      </c>
+      <c r="F54">
+        <v>450</v>
+      </c>
+      <c r="G54" s="5">
+        <v>42321</v>
+      </c>
+      <c r="H54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>597084</v>
+      </c>
+      <c r="F55">
+        <v>400</v>
+      </c>
+      <c r="G55" s="5">
+        <v>42013</v>
+      </c>
+      <c r="H55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>432128</v>
+      </c>
+      <c r="F56">
+        <v>510</v>
+      </c>
+      <c r="G56" s="5">
+        <v>42293</v>
+      </c>
+      <c r="H56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>298</v>
+      </c>
+      <c r="F57">
+        <v>600</v>
+      </c>
+      <c r="G57" s="5">
+        <v>42331</v>
+      </c>
+      <c r="H57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>5691</v>
+      </c>
+      <c r="F58">
+        <v>600</v>
+      </c>
+      <c r="G58" s="5">
+        <v>42226</v>
+      </c>
+      <c r="H58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>399344</v>
+      </c>
+      <c r="F59">
+        <v>400</v>
+      </c>
+      <c r="G59" s="5">
+        <v>42083</v>
+      </c>
+      <c r="H59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>108937</v>
+      </c>
+      <c r="F60">
+        <v>500</v>
+      </c>
+      <c r="G60" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>463</v>
+      </c>
+      <c r="F61">
+        <v>470</v>
+      </c>
+      <c r="G61" s="5">
+        <v>42319</v>
+      </c>
+      <c r="H61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>535</v>
+      </c>
+      <c r="F62">
+        <v>350</v>
+      </c>
+      <c r="G62" s="5">
+        <v>42311</v>
+      </c>
+      <c r="H62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>678</v>
+      </c>
+      <c r="F63">
+        <v>470</v>
+      </c>
+      <c r="G63" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>424685</v>
+      </c>
+      <c r="F64">
+        <v>450</v>
+      </c>
+      <c r="G64" s="5">
+        <v>42245</v>
+      </c>
+      <c r="H64" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>433761</v>
+      </c>
+      <c r="F65">
+        <v>450</v>
+      </c>
+      <c r="G65" s="5">
+        <v>42300</v>
+      </c>
+      <c r="H65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>6563</v>
+      </c>
+      <c r="F66">
+        <v>470</v>
+      </c>
+      <c r="G66" s="5">
+        <v>42263</v>
+      </c>
+      <c r="H66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>396379</v>
+      </c>
+      <c r="F67">
+        <v>380</v>
+      </c>
+      <c r="G67" s="5">
+        <v>42065</v>
+      </c>
+      <c r="H67" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>104859</v>
+      </c>
+      <c r="F68">
+        <v>400</v>
+      </c>
+      <c r="G68" s="5">
+        <v>42124</v>
+      </c>
+      <c r="H68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>24668</v>
+      </c>
+      <c r="F69">
+        <v>450</v>
+      </c>
+      <c r="G69" s="5">
+        <v>42334</v>
+      </c>
+      <c r="H69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>108774</v>
+      </c>
+      <c r="F70">
+        <v>500</v>
+      </c>
+      <c r="G70" s="5">
+        <v>42366</v>
+      </c>
+      <c r="H70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>646374</v>
+      </c>
+      <c r="F71">
+        <v>450</v>
+      </c>
+      <c r="G71" s="5">
+        <v>42302</v>
+      </c>
+      <c r="H71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>439381</v>
+      </c>
+      <c r="F72">
+        <v>450</v>
+      </c>
+      <c r="G72" s="5">
+        <v>42324</v>
+      </c>
+      <c r="H72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>627756</v>
+      </c>
+      <c r="F73">
+        <v>470</v>
+      </c>
+      <c r="G73" s="5">
+        <v>42188</v>
+      </c>
+      <c r="H73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>646999</v>
+      </c>
+      <c r="F74">
+        <v>450</v>
+      </c>
+      <c r="G74" s="5">
+        <v>42306</v>
+      </c>
+      <c r="H74" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>102</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>6702</v>
+      </c>
+      <c r="F75">
+        <v>520</v>
+      </c>
+      <c r="G75" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H75" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>608667</v>
+      </c>
+      <c r="F76">
+        <v>400</v>
+      </c>
+      <c r="G76" s="5">
+        <v>42072</v>
+      </c>
+      <c r="H76" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>386878</v>
+      </c>
+      <c r="F77">
+        <v>400</v>
+      </c>
+      <c r="G77" s="5">
+        <v>42015</v>
+      </c>
+      <c r="H77" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>619440</v>
+      </c>
+      <c r="F78">
+        <v>450</v>
+      </c>
+      <c r="G78" s="5">
+        <v>42139</v>
+      </c>
+      <c r="H78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>105872</v>
+      </c>
+      <c r="F79">
+        <v>450</v>
+      </c>
+      <c r="G79" s="5">
+        <v>42239</v>
+      </c>
+      <c r="H79" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>641944</v>
+      </c>
+      <c r="F80">
+        <v>450</v>
+      </c>
+      <c r="G80" s="5">
+        <v>42279</v>
+      </c>
+      <c r="H80" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>452</v>
+      </c>
+      <c r="F81">
+        <v>400</v>
+      </c>
+      <c r="G81" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>625864</v>
+      </c>
+      <c r="F82">
+        <v>480</v>
+      </c>
+      <c r="G82" s="5">
+        <v>42177</v>
+      </c>
+      <c r="H82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>407028</v>
+      </c>
+      <c r="F83">
+        <v>450</v>
+      </c>
+      <c r="G83" s="5">
+        <v>42132</v>
+      </c>
+      <c r="H83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>451</v>
+      </c>
+      <c r="F84">
+        <v>400</v>
+      </c>
+      <c r="G84" s="5">
+        <v>42360</v>
+      </c>
+      <c r="H84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>399250</v>
+      </c>
+      <c r="F85">
+        <v>400</v>
+      </c>
+      <c r="G85" s="5">
+        <v>42083</v>
+      </c>
+      <c r="H85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>629453</v>
+      </c>
+      <c r="F86">
+        <v>450</v>
+      </c>
+      <c r="G86" s="5">
+        <v>42197</v>
+      </c>
+      <c r="H86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>4155</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87" s="5">
+        <v>42006</v>
+      </c>
+      <c r="H87" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>140</v>
+      </c>
+      <c r="F88">
+        <v>570</v>
+      </c>
+      <c r="G88" s="5">
+        <v>42278</v>
+      </c>
+      <c r="H88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>670</v>
+      </c>
+      <c r="F89">
+        <v>740</v>
+      </c>
+      <c r="G89" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>105041</v>
+      </c>
+      <c r="F90">
+        <v>540</v>
+      </c>
+      <c r="G90" s="5">
+        <v>42152</v>
+      </c>
+      <c r="H90" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>675</v>
+      </c>
+      <c r="F91">
+        <v>470</v>
+      </c>
+      <c r="G91" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H91" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>118</v>
+      </c>
+      <c r="F92">
+        <v>480</v>
+      </c>
+      <c r="G92" s="5">
+        <v>42278</v>
+      </c>
+      <c r="H92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>444218</v>
+      </c>
+      <c r="F93">
+        <v>450</v>
+      </c>
+      <c r="G93" s="5">
+        <v>42350</v>
+      </c>
+      <c r="H93" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>42</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>421397</v>
+      </c>
+      <c r="F94">
+        <v>450</v>
+      </c>
+      <c r="G94" s="5">
+        <v>42221</v>
+      </c>
+      <c r="H94" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>42</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>191291</v>
+      </c>
+      <c r="F95">
+        <v>450</v>
+      </c>
+      <c r="G95" s="5">
+        <v>42351</v>
+      </c>
+      <c r="H95" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>416</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>192858</v>
+      </c>
+      <c r="F96">
+        <v>500</v>
+      </c>
+      <c r="G96" s="5">
+        <v>42369</v>
+      </c>
+      <c r="H96" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>62</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>390216</v>
+      </c>
+      <c r="F97">
+        <v>380</v>
+      </c>
+      <c r="G97" s="5">
+        <v>42032</v>
+      </c>
+      <c r="H97" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>611009</v>
+      </c>
+      <c r="F98">
+        <v>400</v>
+      </c>
+      <c r="G98" s="5">
+        <v>42088</v>
+      </c>
+      <c r="H98" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>192644</v>
+      </c>
+      <c r="F99">
+        <v>500</v>
+      </c>
+      <c r="G99" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H99" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>446399</v>
+      </c>
+      <c r="F100">
+        <v>500</v>
+      </c>
+      <c r="G100" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>108984</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+      <c r="G101" s="5">
+        <v>42369</v>
+      </c>
+      <c r="H101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>192553</v>
+      </c>
+      <c r="F102">
+        <v>500</v>
+      </c>
+      <c r="G102" s="5">
+        <v>42368</v>
+      </c>
+      <c r="H102" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>706</v>
+      </c>
+      <c r="F103">
+        <v>450</v>
+      </c>
+      <c r="G103" s="5">
+        <v>42338</v>
+      </c>
+      <c r="H103" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>643</v>
+      </c>
+      <c r="F104">
+        <v>450</v>
+      </c>
+      <c r="G104" s="5">
+        <v>42327</v>
+      </c>
+      <c r="H104" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>610</v>
+      </c>
+      <c r="G105" s="5">
+        <v>42282</v>
+      </c>
+      <c r="H105" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>99</v>
+      </c>
+      <c r="F106">
+        <v>510</v>
+      </c>
+      <c r="G106" s="5">
+        <v>42282</v>
+      </c>
+      <c r="H106" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>608</v>
+      </c>
+      <c r="F107">
+        <v>700</v>
+      </c>
+      <c r="G107" s="5">
+        <v>42327</v>
+      </c>
+      <c r="H107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>122</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>104</v>
+      </c>
+      <c r="F108">
+        <v>450</v>
+      </c>
+      <c r="G108" s="5">
+        <v>42278</v>
+      </c>
+      <c r="H108" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>6678</v>
+      </c>
+      <c r="F109">
+        <v>470</v>
+      </c>
+      <c r="G109" s="5">
+        <v>42271</v>
+      </c>
+      <c r="H109" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>6156</v>
+      </c>
+      <c r="F110">
+        <v>510</v>
+      </c>
+      <c r="G110" s="5">
+        <v>42246</v>
+      </c>
+      <c r="H110" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>6450</v>
+      </c>
+      <c r="F111">
+        <v>350</v>
+      </c>
+      <c r="G111" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H111" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>638404</v>
+      </c>
+      <c r="F112">
+        <v>450</v>
+      </c>
+      <c r="G112" s="5">
+        <v>42257</v>
+      </c>
+      <c r="H112" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>434131</v>
+      </c>
+      <c r="F113">
+        <v>450</v>
+      </c>
+      <c r="G113" s="5">
+        <v>42302</v>
+      </c>
+      <c r="H113" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>104980</v>
+      </c>
+      <c r="F114">
+        <v>450</v>
+      </c>
+      <c r="G114" s="5">
+        <v>42132</v>
+      </c>
+      <c r="H114" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>188586</v>
+      </c>
+      <c r="F115">
+        <v>450</v>
+      </c>
+      <c r="G115" s="5">
+        <v>42237</v>
+      </c>
+      <c r="H115" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>626816</v>
+      </c>
+      <c r="F116">
+        <v>450</v>
+      </c>
+      <c r="G116" s="5">
+        <v>42182</v>
+      </c>
+      <c r="H116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117">
+        <v>439611</v>
+      </c>
+      <c r="F117">
+        <v>450</v>
+      </c>
+      <c r="G117" s="5">
+        <v>42325</v>
+      </c>
+      <c r="H117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>35</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>652497</v>
+      </c>
+      <c r="F118">
+        <v>450</v>
+      </c>
+      <c r="G118" s="5">
+        <v>42333</v>
+      </c>
+      <c r="H118" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>35</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>189695</v>
+      </c>
+      <c r="F119">
+        <v>450</v>
+      </c>
+      <c r="G119" s="5">
+        <v>42283</v>
+      </c>
+      <c r="H119" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>53</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>649197</v>
+      </c>
+      <c r="F120">
+        <v>450</v>
+      </c>
+      <c r="G120" s="5">
+        <v>42316</v>
+      </c>
+      <c r="H120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>64</v>
+      </c>
+      <c r="F121">
+        <v>450</v>
+      </c>
+      <c r="G121" s="5">
+        <v>42277</v>
+      </c>
+      <c r="H121" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>1323</v>
+      </c>
+      <c r="F122">
+        <v>400</v>
+      </c>
+      <c r="G122" s="5">
+        <v>42361</v>
+      </c>
+      <c r="H122" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>65</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>596853</v>
+      </c>
+      <c r="F123">
+        <v>400</v>
+      </c>
+      <c r="G123" s="5">
+        <v>42012</v>
+      </c>
+      <c r="H123" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>78</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>7</v>
+      </c>
+      <c r="E124">
+        <v>427897</v>
+      </c>
+      <c r="F124">
+        <v>450</v>
+      </c>
+      <c r="G124" s="5">
+        <v>42267</v>
+      </c>
+      <c r="H124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>189069</v>
+      </c>
+      <c r="F125">
+        <v>540</v>
+      </c>
+      <c r="G125" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H125" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>82</v>
+      </c>
+      <c r="B126" t="s">
+        <v>428</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>1321</v>
+      </c>
+      <c r="F126">
+        <v>450</v>
+      </c>
+      <c r="G126" s="5">
+        <v>42361</v>
+      </c>
+      <c r="H126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>90</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>654999</v>
+      </c>
+      <c r="F127">
+        <v>450</v>
+      </c>
+      <c r="G127" s="5">
+        <v>42349</v>
+      </c>
+      <c r="H127" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>676</v>
+      </c>
+      <c r="F128">
+        <v>660</v>
+      </c>
+      <c r="G128" s="5">
+        <v>42339</v>
+      </c>
+      <c r="H128" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>116</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>643453</v>
+      </c>
+      <c r="F129">
+        <v>450</v>
+      </c>
+      <c r="G129" s="5">
+        <v>42287</v>
+      </c>
+      <c r="H129" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>656220</v>
+      </c>
+      <c r="F130">
+        <v>560</v>
+      </c>
+      <c r="G130" s="5">
+        <v>42355</v>
+      </c>
+      <c r="H130" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>126</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>631508</v>
+      </c>
+      <c r="F131">
+        <v>450</v>
+      </c>
+      <c r="G131" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H131" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>17980</v>
+      </c>
+      <c r="F132">
+        <v>400</v>
+      </c>
+      <c r="G132" s="5">
+        <v>42030</v>
+      </c>
+      <c r="H132" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>190544</v>
+      </c>
+      <c r="F133">
+        <v>430</v>
+      </c>
+      <c r="G133" s="5">
+        <v>42336</v>
+      </c>
+      <c r="H133" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>637055</v>
+      </c>
+      <c r="F134">
+        <v>450</v>
+      </c>
+      <c r="G134" s="5">
+        <v>42248</v>
+      </c>
+      <c r="H134" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>41</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>610262</v>
+      </c>
+      <c r="F135">
+        <v>430</v>
+      </c>
+      <c r="G135" s="5">
+        <v>42082</v>
+      </c>
+      <c r="H135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>51</v>
+      </c>
+      <c r="B136" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>643783</v>
+      </c>
+      <c r="F136">
+        <v>540</v>
+      </c>
+      <c r="G136" s="5">
+        <v>42289</v>
+      </c>
+      <c r="H136" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>58</v>
+      </c>
+      <c r="B137" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>190290</v>
+      </c>
+      <c r="F137">
+        <v>450</v>
+      </c>
+      <c r="G137" s="5">
+        <v>42285</v>
+      </c>
+      <c r="H137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>61</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>106452</v>
+      </c>
+      <c r="F138">
+        <v>540</v>
+      </c>
+      <c r="G138" s="5">
+        <v>42260</v>
+      </c>
+      <c r="H138" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>63</v>
+      </c>
+      <c r="B139" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>599739</v>
+      </c>
+      <c r="F139">
+        <v>400</v>
+      </c>
+      <c r="G139" s="5">
+        <v>42026</v>
+      </c>
+      <c r="H139" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>70</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <v>404247</v>
+      </c>
+      <c r="F140">
+        <v>400</v>
+      </c>
+      <c r="G140" s="5">
+        <v>42116</v>
+      </c>
+      <c r="H140" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>70</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>12592</v>
+      </c>
+      <c r="F141">
+        <v>450</v>
+      </c>
+      <c r="G141" s="5">
+        <v>42338</v>
+      </c>
+      <c r="H141" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>70</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <v>1322</v>
+      </c>
+      <c r="F142">
+        <v>460</v>
+      </c>
+      <c r="G142" s="5">
+        <v>42361</v>
+      </c>
+      <c r="H142" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>75</v>
+      </c>
+      <c r="B143" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>621823</v>
+      </c>
+      <c r="F143">
+        <v>450</v>
+      </c>
+      <c r="G143" s="5">
+        <v>42153</v>
+      </c>
+      <c r="H143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>96</v>
+      </c>
+      <c r="B144" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>6428</v>
+      </c>
+      <c r="F144">
+        <v>470</v>
+      </c>
+      <c r="G144" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H144" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>96</v>
+      </c>
+      <c r="B145" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145">
+        <v>419266</v>
+      </c>
+      <c r="F145">
+        <v>450</v>
+      </c>
+      <c r="G145" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>96</v>
+      </c>
+      <c r="B146" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>6447</v>
+      </c>
+      <c r="F146">
+        <v>350</v>
+      </c>
+      <c r="G146" s="5">
+        <v>42258</v>
+      </c>
+      <c r="H146" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>104</v>
+      </c>
+      <c r="B147" t="s">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
+      </c>
+      <c r="E147">
+        <v>525</v>
+      </c>
+      <c r="F147">
+        <v>350</v>
+      </c>
+      <c r="G147" s="5">
+        <v>42306</v>
+      </c>
+      <c r="H147" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>105</v>
+      </c>
+      <c r="B148" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>399001</v>
+      </c>
+      <c r="F148">
+        <v>400</v>
+      </c>
+      <c r="G148" s="5">
+        <v>42080</v>
+      </c>
+      <c r="H148" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>113</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>8</v>
+      </c>
+      <c r="E149">
+        <v>135983</v>
+      </c>
+      <c r="F149">
+        <v>450</v>
+      </c>
+      <c r="G149" s="5">
+        <v>42237</v>
+      </c>
+      <c r="H149" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>113</v>
+      </c>
+      <c r="B150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>192412</v>
+      </c>
+      <c r="F150">
+        <v>500</v>
+      </c>
+      <c r="G150" s="5">
+        <v>42367</v>
+      </c>
+      <c r="H150" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>113</v>
+      </c>
+      <c r="B151" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>108384</v>
+      </c>
+      <c r="F151">
+        <v>500</v>
+      </c>
+      <c r="G151" s="5">
+        <v>42365</v>
+      </c>
+      <c r="H151" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
